--- a/output_data/charts/0700000US390498124299999.xlsx
+++ b/output_data/charts/0700000US390498124299999.xlsx
@@ -141,31 +141,40 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100"/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2012</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2018</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>2021</c:v>
                 </c:pt>
               </c:numCache>
@@ -173,23 +182,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.575485577012607</c:v>
+                  <c:v>3.269218759757697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.269218759757697</c:v>
+                  <c:v>4.190783698126683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.14093769994197</c:v>
+                  <c:v>5.176704112308157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.338521064971305</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>3.862804326340846</c:v>
                 </c:pt>
               </c:numCache>
@@ -213,7 +219,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -228,7 +236,7 @@
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.8723731714684355"/>
+          <c:max val="6"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -240,7 +248,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -250,6 +260,37 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="66666">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="66666">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+            <a:gs pos="83333">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+            <a:gs pos="83333">
+              <a:srgbClr val="FF8080"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FF8080"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -271,10 +312,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -581,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,41 +641,33 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="B2" s="1">
-        <v>3.575485577012607</v>
+        <v>3.269218759757697</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B3" s="1">
-        <v>3.269218759757697</v>
+        <v>4.190783698126683</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="1">
-        <v>4.14093769994197</v>
+        <v>5.176704112308157</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="1">
-        <v>5.338521064971305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="1">
         <v>3.862804326340846</v>
       </c>
     </row>
